--- a/Code/Results/Cases/Case_1_220/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_220/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.38573544031135</v>
+        <v>2.302441578384219</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8268822158077</v>
+        <v>0.2588745615190362</v>
       </c>
       <c r="E2">
-        <v>0.6598183099248445</v>
+        <v>0.1837691009056499</v>
       </c>
       <c r="F2">
-        <v>4.476215753229582</v>
+        <v>5.062241093603916</v>
       </c>
       <c r="G2">
-        <v>0.0007674574021944982</v>
+        <v>0.002645520021711585</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6225947087160009</v>
+        <v>1.600655608578592</v>
       </c>
       <c r="J2">
-        <v>0.7019156718247928</v>
+        <v>0.1960669283190839</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>3.350206678066456</v>
+        <v>2.01447086552696</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.938525650893041</v>
+        <v>2.197030882498154</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6997830858062173</v>
+        <v>0.2312334551508854</v>
       </c>
       <c r="E3">
-        <v>0.5619584384250516</v>
+        <v>0.1601327085937783</v>
       </c>
       <c r="F3">
-        <v>4.000992934825291</v>
+        <v>5.017848216952501</v>
       </c>
       <c r="G3">
-        <v>0.0007859764720133846</v>
+        <v>0.002656060729833133</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6430819828770282</v>
+        <v>1.625447785421905</v>
       </c>
       <c r="J3">
-        <v>0.6031556213392122</v>
+        <v>0.1705955069015488</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.889000237882556</v>
+        <v>1.916170953061169</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.670010314797025</v>
+        <v>2.133333001872245</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6252471342744172</v>
+        <v>0.2144484745780915</v>
       </c>
       <c r="E4">
-        <v>0.503923915656074</v>
+        <v>0.1456664053538219</v>
       </c>
       <c r="F4">
-        <v>3.73041966343564</v>
+        <v>4.994673423203551</v>
       </c>
       <c r="G4">
-        <v>0.0007974603691188071</v>
+        <v>0.002662859040017201</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6593548860438929</v>
+        <v>1.64182562710743</v>
       </c>
       <c r="J4">
-        <v>0.5441817842737464</v>
+        <v>0.1549477588310282</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.615224983573029</v>
+        <v>1.857005387659171</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.561855242275954</v>
+        <v>2.107632123492067</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5955952149383279</v>
+        <v>0.2076531852166283</v>
       </c>
       <c r="E5">
-        <v>0.4806908656204882</v>
+        <v>0.139781754203959</v>
       </c>
       <c r="F5">
-        <v>3.624726902205055</v>
+        <v>4.986245066676162</v>
       </c>
       <c r="G5">
-        <v>0.0008021792286460886</v>
+        <v>0.002665711825277082</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6668214734310922</v>
+        <v>1.648788605208729</v>
       </c>
       <c r="J5">
-        <v>0.5204827831081218</v>
+        <v>0.1485682412089631</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.505619151753393</v>
+        <v>1.833190334041603</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.543965845997263</v>
+        <v>2.103379974407119</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5907110014017292</v>
+        <v>0.2065274692869252</v>
       </c>
       <c r="E6">
-        <v>0.4768555961269314</v>
+        <v>0.1388052105848772</v>
       </c>
       <c r="F6">
-        <v>3.607432471282436</v>
+        <v>4.984906562460452</v>
       </c>
       <c r="G6">
-        <v>0.0008029654312564161</v>
+        <v>0.002666190516756736</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6681092743011732</v>
+        <v>1.649962201952896</v>
       </c>
       <c r="J6">
-        <v>0.5165654872164822</v>
+        <v>0.1475087250207991</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.487526916653962</v>
+        <v>1.829253586784318</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.668546882125327</v>
+        <v>2.132985353608547</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6248445051078306</v>
+        <v>0.2143566527623761</v>
       </c>
       <c r="E7">
-        <v>0.5036090195668166</v>
+        <v>0.1455870020268364</v>
       </c>
       <c r="F7">
-        <v>3.728976682692149</v>
+        <v>4.994555657910581</v>
       </c>
       <c r="G7">
-        <v>0.0007975238381510563</v>
+        <v>0.002662897179751868</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6594523144136986</v>
+        <v>1.64191836477486</v>
       </c>
       <c r="J7">
-        <v>0.5438609240657826</v>
+        <v>0.1548617354374642</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.613739354636607</v>
+        <v>1.85668301877493</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.230106912100041</v>
+        <v>2.265882531050806</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7822265665521684</v>
+        <v>0.2493037768369106</v>
       </c>
       <c r="E8">
-        <v>0.6255847631284439</v>
+        <v>0.1756088663528033</v>
       </c>
       <c r="F8">
-        <v>4.307452431351408</v>
+        <v>5.046080352542106</v>
       </c>
       <c r="G8">
-        <v>0.0007738262797607849</v>
+        <v>0.002649086966389506</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.628830946782621</v>
+        <v>1.608963165412469</v>
       </c>
       <c r="J8">
-        <v>0.667461211107522</v>
+        <v>0.1872855415949886</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>3.188963635602079</v>
+        <v>1.980327335591255</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.393994134298964</v>
+        <v>2.534696864108696</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.127688454247135</v>
+        <v>0.3194226651191059</v>
       </c>
       <c r="E9">
-        <v>0.8867264139141469</v>
+        <v>0.2349097020296682</v>
       </c>
       <c r="F9">
-        <v>5.653276259935893</v>
+        <v>5.180031380629686</v>
       </c>
       <c r="G9">
-        <v>0.000727654927447136</v>
+        <v>0.002624576837461151</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.603292879820394</v>
+        <v>1.553579357153907</v>
       </c>
       <c r="J9">
-        <v>0.9279283768444486</v>
+        <v>0.2508470624670736</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4.414487808087472</v>
+        <v>2.232447692041376</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.313597509009185</v>
+        <v>2.737327076323538</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.420870164228376</v>
+        <v>0.3720604277122561</v>
       </c>
       <c r="E10">
-        <v>1.102587712844894</v>
+        <v>0.2788261412495814</v>
       </c>
       <c r="F10">
-        <v>6.850414878350193</v>
+        <v>5.29925441209059</v>
       </c>
       <c r="G10">
-        <v>0.0006928115037452454</v>
+        <v>0.00260811281998791</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6150518527680759</v>
+        <v>1.518625090934293</v>
       </c>
       <c r="J10">
-        <v>1.139466045817272</v>
+        <v>0.2975990139934481</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.416556896816644</v>
+        <v>2.423878387318098</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.754478682566685</v>
+        <v>2.83065551428615</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.568521378368217</v>
+        <v>0.3962846334631536</v>
       </c>
       <c r="E11">
-        <v>1.209599357407072</v>
+        <v>0.2989001996021585</v>
       </c>
       <c r="F11">
-        <v>7.466660002443206</v>
+        <v>5.358177446788886</v>
       </c>
       <c r="G11">
-        <v>0.0006763928733777291</v>
+        <v>0.002600952850820371</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6301384938593912</v>
+        <v>1.503991670560268</v>
       </c>
       <c r="J11">
-        <v>1.243182166234703</v>
+        <v>0.3188945089902404</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.908531372257812</v>
+        <v>2.512382857398507</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.925705206205805</v>
+        <v>2.866164401262836</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.627207692456722</v>
+        <v>0.4055006315553271</v>
       </c>
       <c r="E12">
-        <v>1.251842903519062</v>
+        <v>0.306517147777484</v>
       </c>
       <c r="F12">
-        <v>7.713591199835292</v>
+        <v>5.38117790932165</v>
       </c>
       <c r="G12">
-        <v>0.0006700482190227377</v>
+        <v>0.002598288540916501</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6376333487455526</v>
+        <v>1.498634577234021</v>
       </c>
       <c r="J12">
-        <v>1.283924171087847</v>
+        <v>0.3269637601908926</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.101761751657364</v>
+        <v>2.546107324408695</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.888617791011711</v>
+        <v>2.858509448198845</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.614430496661384</v>
+        <v>0.4035138535046485</v>
       </c>
       <c r="E13">
-        <v>1.24265924834944</v>
+        <v>0.3048759951957578</v>
       </c>
       <c r="F13">
-        <v>7.659740525929976</v>
+        <v>5.376193549263604</v>
       </c>
       <c r="G13">
-        <v>0.0006714212368144405</v>
+        <v>0.002598860262939284</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6359322871113235</v>
+        <v>1.49978009548601</v>
       </c>
       <c r="J13">
-        <v>1.275076450925837</v>
+        <v>0.3252256571549879</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.059802870590602</v>
+        <v>2.538834741848234</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.76847264939596</v>
+        <v>2.833573484615215</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.573288770374347</v>
+        <v>0.397041965362547</v>
       </c>
       <c r="E14">
-        <v>1.213037024294962</v>
+        <v>0.2995265343691784</v>
       </c>
       <c r="F14">
-        <v>7.486679896416177</v>
+        <v>5.36005584999657</v>
       </c>
       <c r="G14">
-        <v>0.0006758737708773177</v>
+        <v>0.002600732716469175</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6307166853430388</v>
+        <v>1.503547234680624</v>
       </c>
       <c r="J14">
-        <v>1.246501831353925</v>
+        <v>0.3195582622159634</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.924277301967209</v>
+        <v>2.515153154859036</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.695473969020952</v>
+        <v>2.818321351385407</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.548475808726977</v>
+        <v>0.3930834042374443</v>
       </c>
       <c r="E15">
-        <v>1.195133150850978</v>
+        <v>0.2962518778528818</v>
       </c>
       <c r="F15">
-        <v>7.382561138763378</v>
+        <v>5.350260993289652</v>
       </c>
       <c r="G15">
-        <v>0.0006785828482471218</v>
+        <v>0.002601885759874847</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6277677840335443</v>
+        <v>1.505878773259852</v>
       </c>
       <c r="J15">
-        <v>1.229204341053418</v>
+        <v>0.3160875183161238</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.842229340416452</v>
+        <v>2.500674975063248</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.285318813460947</v>
+        <v>2.731251164848061</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.411563655591095</v>
+        <v>0.3704831622215465</v>
       </c>
       <c r="E16">
-        <v>1.095806505727069</v>
+        <v>0.2775163180473044</v>
       </c>
       <c r="F16">
-        <v>6.81183647604837</v>
+        <v>5.295499129608288</v>
       </c>
       <c r="G16">
-        <v>0.0006938695468473539</v>
+        <v>0.002608587340578396</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6142914359878588</v>
+        <v>1.51960709441925</v>
       </c>
       <c r="J16">
-        <v>1.132868654621888</v>
+        <v>0.2962079567687965</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.385266360201456</v>
+        <v>2.418123469142813</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.040105814383708</v>
+        <v>2.678132535377983</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.331662605614724</v>
+        <v>0.3566920047637154</v>
       </c>
       <c r="E17">
-        <v>1.037402372669447</v>
+        <v>0.2660483614862699</v>
       </c>
       <c r="F17">
-        <v>6.482043889637623</v>
+        <v>5.263114660517431</v>
       </c>
       <c r="G17">
-        <v>0.0007030744299010675</v>
+        <v>0.002612782690935067</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6087497409353659</v>
+        <v>1.528355015171158</v>
       </c>
       <c r="J17">
-        <v>1.075921505797226</v>
+        <v>0.2840203871840856</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.11523606110552</v>
+        <v>2.367848634928691</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.901110189049461</v>
+        <v>2.647688312074195</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.286994568972688</v>
+        <v>0.3487857933930911</v>
       </c>
       <c r="E18">
-        <v>1.004604813700482</v>
+        <v>0.259461263301219</v>
       </c>
       <c r="F18">
-        <v>6.298851804928006</v>
+        <v>5.244928389727988</v>
       </c>
       <c r="G18">
-        <v>0.000708318835456065</v>
+        <v>0.002615226791293289</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6064498722484899</v>
+        <v>1.533505763903165</v>
       </c>
       <c r="J18">
-        <v>1.043841698889509</v>
+        <v>0.2770129668527375</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.963190028864688</v>
+        <v>2.339065366115108</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.854373858250085</v>
+        <v>2.637398949445185</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.272074353232966</v>
+        <v>0.346113287459076</v>
       </c>
       <c r="E19">
-        <v>0.993625493949196</v>
+        <v>0.2572324803017665</v>
       </c>
       <c r="F19">
-        <v>6.237860517587194</v>
+        <v>5.238846068137491</v>
       </c>
       <c r="G19">
-        <v>0.0007100870444992607</v>
+        <v>0.002616059665534388</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6058140718331444</v>
+        <v>1.535270126963816</v>
       </c>
       <c r="J19">
-        <v>1.033086285441328</v>
+        <v>0.2746407790643843</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.912228028534457</v>
+        <v>2.3293426137908</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.065991213997052</v>
+        <v>2.683775891598316</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.340030443596589</v>
+        <v>0.3581573767237387</v>
       </c>
       <c r="E20">
-        <v>1.043534573666733</v>
+        <v>0.2672682062792688</v>
       </c>
       <c r="F20">
-        <v>6.516458625236368</v>
+        <v>5.266516364288549</v>
       </c>
       <c r="G20">
-        <v>0.0007021000068896388</v>
+        <v>0.002612332878443127</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6092454630664292</v>
+        <v>1.52741143539135</v>
       </c>
       <c r="J20">
-        <v>1.081911434819659</v>
+        <v>0.285317503210706</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.143632403454035</v>
+        <v>2.373186623750712</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.803636055036009</v>
+        <v>2.840893221381862</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.585290609019296</v>
+        <v>0.3989417319250776</v>
       </c>
       <c r="E21">
-        <v>1.221686566787099</v>
+        <v>0.3010973722539916</v>
       </c>
       <c r="F21">
-        <v>7.537111253114944</v>
+        <v>5.364777113392506</v>
       </c>
       <c r="G21">
-        <v>0.0006745698606054173</v>
+        <v>0.002600181458431772</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.632196511680263</v>
+        <v>1.50243571746843</v>
       </c>
       <c r="J21">
-        <v>1.254851173808731</v>
+        <v>0.3212227657460005</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.963879161264686</v>
+        <v>2.522103275266488</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.311441755956025</v>
+        <v>2.944555407318717</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.762331246195743</v>
+        <v>0.4258475385305189</v>
       </c>
       <c r="E22">
-        <v>1.348512816390468</v>
+        <v>0.3232968180071225</v>
       </c>
       <c r="F22">
-        <v>8.285860584731978</v>
+        <v>5.433010484596224</v>
       </c>
       <c r="G22">
-        <v>0.0006557992494713366</v>
+        <v>0.002592513664792222</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6578804742704563</v>
+        <v>1.487187642444447</v>
       </c>
       <c r="J22">
-        <v>1.37674251838655</v>
+        <v>0.3447192591246449</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.541724359084071</v>
+        <v>2.620654080909901</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.037611935008158</v>
+        <v>2.889138882953432</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.665985638404322</v>
+        <v>0.4114635394075776</v>
       </c>
       <c r="E23">
-        <v>1.279668964890419</v>
+        <v>0.3114398019882287</v>
       </c>
       <c r="F23">
-        <v>7.87731432664205</v>
+        <v>5.396221199493368</v>
       </c>
       <c r="G23">
-        <v>0.0006659089526226489</v>
+        <v>0.002596581178678098</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6430267873546498</v>
+        <v>1.495226790550085</v>
       </c>
       <c r="J23">
-        <v>1.31070038253722</v>
+        <v>0.3321755846008614</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.228726138050661</v>
+        <v>2.567941750953594</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.054282327924568</v>
+        <v>2.681224236408809</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.336243444045436</v>
+        <v>0.3574948121541013</v>
       </c>
       <c r="E24">
-        <v>1.040759808252176</v>
+        <v>0.2667166959258793</v>
       </c>
       <c r="F24">
-        <v>6.500879984953315</v>
+        <v>5.26497710947109</v>
       </c>
       <c r="G24">
-        <v>0.0007025406888544343</v>
+        <v>0.002612536138606895</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6090186136563247</v>
+        <v>1.527837649663773</v>
       </c>
       <c r="J24">
-        <v>1.079201359647357</v>
+        <v>0.2847310790829738</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.130784576927056</v>
+        <v>2.37077294437438</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.070100028684919</v>
+        <v>2.461084152938611</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.028821772679493</v>
+        <v>0.30026802965142</v>
       </c>
       <c r="E25">
-        <v>0.812810673269837</v>
+        <v>0.2188125682297937</v>
       </c>
       <c r="F25">
-        <v>5.259611877878967</v>
+        <v>5.140194690225144</v>
       </c>
       <c r="G25">
-        <v>0.0007402099128621394</v>
+        <v>0.002630934655616321</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6056732400510469</v>
+        <v>1.567562332442947</v>
       </c>
       <c r="J25">
-        <v>0.8547364868532128</v>
+        <v>0.2336475606307857</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>4.068820173812071</v>
+        <v>2.163177272260839</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_220/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_220/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.302441578384219</v>
+        <v>3.385735440311407</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2588745615190362</v>
+        <v>0.8268822158074727</v>
       </c>
       <c r="E2">
-        <v>0.1837691009056499</v>
+        <v>0.6598183099248445</v>
       </c>
       <c r="F2">
-        <v>5.062241093603916</v>
+        <v>4.47621575322961</v>
       </c>
       <c r="G2">
-        <v>0.002645520021711585</v>
+        <v>0.000767457402337939</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.600655608578592</v>
+        <v>0.6225947087160222</v>
       </c>
       <c r="J2">
-        <v>0.1960669283190839</v>
+        <v>0.7019156718247928</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.01447086552696</v>
+        <v>3.350206678066343</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.197030882498154</v>
+        <v>2.938525650893155</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2312334551508854</v>
+        <v>0.6997830858060183</v>
       </c>
       <c r="E3">
-        <v>0.1601327085937783</v>
+        <v>0.5619584384250587</v>
       </c>
       <c r="F3">
-        <v>5.017848216952501</v>
+        <v>4.000992934825291</v>
       </c>
       <c r="G3">
-        <v>0.002656060729833133</v>
+        <v>0.0007859764719257197</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.625447785421905</v>
+        <v>0.6430819828769998</v>
       </c>
       <c r="J3">
-        <v>0.1705955069015488</v>
+        <v>0.6031556213392406</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.916170953061169</v>
+        <v>2.889000237882556</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.133333001872245</v>
+        <v>2.670010314796968</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2144484745780915</v>
+        <v>0.6252471342745025</v>
       </c>
       <c r="E4">
-        <v>0.1456664053538219</v>
+        <v>0.5039239156560953</v>
       </c>
       <c r="F4">
-        <v>4.994673423203551</v>
+        <v>3.730419663435583</v>
       </c>
       <c r="G4">
-        <v>0.002662859040017201</v>
+        <v>0.0007974603690949167</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.64182562710743</v>
+        <v>0.6593548860438716</v>
       </c>
       <c r="J4">
-        <v>0.1549477588310282</v>
+        <v>0.5441817842737606</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.857005387659171</v>
+        <v>2.615224983572915</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.107632123492067</v>
+        <v>2.56185524227601</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2076531852166283</v>
+        <v>0.5955952149380153</v>
       </c>
       <c r="E5">
-        <v>0.139781754203959</v>
+        <v>0.4806908656204243</v>
       </c>
       <c r="F5">
-        <v>4.986245066676162</v>
+        <v>3.624726902205055</v>
       </c>
       <c r="G5">
-        <v>0.002665711825277082</v>
+        <v>0.0008021792286997334</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.648788605208729</v>
+        <v>0.6668214734310709</v>
       </c>
       <c r="J5">
-        <v>0.1485682412089631</v>
+        <v>0.520482783108065</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.833190334041603</v>
+        <v>2.505619151753507</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.103379974407119</v>
+        <v>2.543965845997491</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2065274692869252</v>
+        <v>0.5907110014017576</v>
       </c>
       <c r="E6">
-        <v>0.1388052105848772</v>
+        <v>0.4768555961269882</v>
       </c>
       <c r="F6">
-        <v>4.984906562460452</v>
+        <v>3.607432471282436</v>
       </c>
       <c r="G6">
-        <v>0.002666190516756736</v>
+        <v>0.0008029654311846856</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.649962201952896</v>
+        <v>0.6681092743012229</v>
       </c>
       <c r="J6">
-        <v>0.1475087250207991</v>
+        <v>0.5165654872165106</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.829253586784318</v>
+        <v>2.487526916653934</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.132985353608547</v>
+        <v>2.66854688212544</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2143566527623761</v>
+        <v>0.6248445051078875</v>
       </c>
       <c r="E7">
-        <v>0.1455870020268364</v>
+        <v>0.5036090195668166</v>
       </c>
       <c r="F7">
-        <v>4.994555657910581</v>
+        <v>3.728976682692092</v>
       </c>
       <c r="G7">
-        <v>0.002662897179751868</v>
+        <v>0.000797523838155415</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.64191836477486</v>
+        <v>0.6594523144137199</v>
       </c>
       <c r="J7">
-        <v>0.1548617354374642</v>
+        <v>0.5438609240656973</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.85668301877493</v>
+        <v>2.613739354636664</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.265882531050806</v>
+        <v>3.230106912099984</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2493037768369106</v>
+        <v>0.7822265665523105</v>
       </c>
       <c r="E8">
-        <v>0.1756088663528033</v>
+        <v>0.6255847631284013</v>
       </c>
       <c r="F8">
-        <v>5.046080352542106</v>
+        <v>4.307452431351436</v>
       </c>
       <c r="G8">
-        <v>0.002649086966389506</v>
+        <v>0.0007738262798208299</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.608963165412469</v>
+        <v>0.628830946782621</v>
       </c>
       <c r="J8">
-        <v>0.1872855415949886</v>
+        <v>0.6674612111073941</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.980327335591255</v>
+        <v>3.188963635602249</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.534696864108696</v>
+        <v>4.393994134299021</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3194226651191059</v>
+        <v>1.127688454246879</v>
       </c>
       <c r="E9">
-        <v>0.2349097020296682</v>
+        <v>0.8867264139142037</v>
       </c>
       <c r="F9">
-        <v>5.180031380629686</v>
+        <v>5.653276259935922</v>
       </c>
       <c r="G9">
-        <v>0.002624576837461151</v>
+        <v>0.0007276549274989586</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.553579357153907</v>
+        <v>0.6032928798203869</v>
       </c>
       <c r="J9">
-        <v>0.2508470624670736</v>
+        <v>0.927928376844477</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.232447692041376</v>
+        <v>4.414487808087529</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.737327076323538</v>
+        <v>5.313597509009128</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3720604277122561</v>
+        <v>1.420870164228745</v>
       </c>
       <c r="E10">
-        <v>0.2788261412495814</v>
+        <v>1.102587712844894</v>
       </c>
       <c r="F10">
-        <v>5.29925441209059</v>
+        <v>6.850414878350193</v>
       </c>
       <c r="G10">
-        <v>0.00260811281998791</v>
+        <v>0.0006928115037380363</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.518625090934293</v>
+        <v>0.6150518527680973</v>
       </c>
       <c r="J10">
-        <v>0.2975990139934481</v>
+        <v>1.139466045817329</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.423878387318098</v>
+        <v>5.416556896816815</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.83065551428615</v>
+        <v>5.754478682566742</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3962846334631536</v>
+        <v>1.568521378368359</v>
       </c>
       <c r="E11">
-        <v>0.2989001996021585</v>
+        <v>1.209599357407015</v>
       </c>
       <c r="F11">
-        <v>5.358177446788886</v>
+        <v>7.466660002443177</v>
       </c>
       <c r="G11">
-        <v>0.002600952850820371</v>
+        <v>0.0006763928734836756</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.503991670560268</v>
+        <v>0.6301384938593984</v>
       </c>
       <c r="J11">
-        <v>0.3188945089902404</v>
+        <v>1.243182166234703</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.512382857398507</v>
+        <v>5.908531372257755</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.866164401262836</v>
+        <v>5.925705206205635</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4055006315553271</v>
+        <v>1.627207692456807</v>
       </c>
       <c r="E12">
-        <v>0.306517147777484</v>
+        <v>1.251842903519034</v>
       </c>
       <c r="F12">
-        <v>5.38117790932165</v>
+        <v>7.713591199835207</v>
       </c>
       <c r="G12">
-        <v>0.002598288540916501</v>
+        <v>0.0006700482189296732</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.498634577234021</v>
+        <v>0.6376333487455383</v>
       </c>
       <c r="J12">
-        <v>0.3269637601908926</v>
+        <v>1.283924171087762</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.546107324408695</v>
+        <v>6.101761751657477</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.858509448198845</v>
+        <v>5.888617791011598</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4035138535046485</v>
+        <v>1.614430496661384</v>
       </c>
       <c r="E13">
-        <v>0.3048759951957578</v>
+        <v>1.242659248349469</v>
       </c>
       <c r="F13">
-        <v>5.376193549263604</v>
+        <v>7.659740525929976</v>
       </c>
       <c r="G13">
-        <v>0.002598860262939284</v>
+        <v>0.0006714212368128295</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.49978009548601</v>
+        <v>0.6359322871113235</v>
       </c>
       <c r="J13">
-        <v>0.3252256571549879</v>
+        <v>1.275076450925724</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.538834741848234</v>
+        <v>6.059802870590829</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.833573484615215</v>
+        <v>5.768472649396017</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.397041965362547</v>
+        <v>1.57328877037412</v>
       </c>
       <c r="E14">
-        <v>0.2995265343691784</v>
+        <v>1.213037024295005</v>
       </c>
       <c r="F14">
-        <v>5.36005584999657</v>
+        <v>7.486679896416263</v>
       </c>
       <c r="G14">
-        <v>0.002600732716469175</v>
+        <v>0.0006758737708751284</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.503547234680624</v>
+        <v>0.6307166853430317</v>
       </c>
       <c r="J14">
-        <v>0.3195582622159634</v>
+        <v>1.246501831353982</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.515153154859036</v>
+        <v>5.924277301967265</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.818321351385407</v>
+        <v>5.695473969021066</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3930834042374443</v>
+        <v>1.548475808727204</v>
       </c>
       <c r="E15">
-        <v>0.2962518778528818</v>
+        <v>1.19513315085095</v>
       </c>
       <c r="F15">
-        <v>5.350260993289652</v>
+        <v>7.38256113876335</v>
       </c>
       <c r="G15">
-        <v>0.002601885759874847</v>
+        <v>0.0006785828479306837</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.505878773259852</v>
+        <v>0.6277677840335372</v>
       </c>
       <c r="J15">
-        <v>0.3160875183161238</v>
+        <v>1.229204341053247</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.500674975063248</v>
+        <v>5.842229340416566</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.731251164848061</v>
+        <v>5.285318813460947</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3704831622215465</v>
+        <v>1.411563655591607</v>
       </c>
       <c r="E16">
-        <v>0.2775163180473044</v>
+        <v>1.095806505726998</v>
       </c>
       <c r="F16">
-        <v>5.295499129608288</v>
+        <v>6.811836476048313</v>
       </c>
       <c r="G16">
-        <v>0.002608587340578396</v>
+        <v>0.0006938695467463618</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.51960709441925</v>
+        <v>0.6142914359878517</v>
       </c>
       <c r="J16">
-        <v>0.2962079567687965</v>
+        <v>1.132868654621774</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.418123469142813</v>
+        <v>5.385266360201229</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.678132535377983</v>
+        <v>5.040105814383708</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3566920047637154</v>
+        <v>1.331662605615122</v>
       </c>
       <c r="E17">
-        <v>0.2660483614862699</v>
+        <v>1.037402372669419</v>
       </c>
       <c r="F17">
-        <v>5.263114660517431</v>
+        <v>6.482043889637652</v>
       </c>
       <c r="G17">
-        <v>0.002612782690935067</v>
+        <v>0.0007030744300035243</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.528355015171158</v>
+        <v>0.6087497409353801</v>
       </c>
       <c r="J17">
-        <v>0.2840203871840856</v>
+        <v>1.07592150579714</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.367848634928691</v>
+        <v>5.115236061105577</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.647688312074195</v>
+        <v>4.901110189049461</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3487857933930911</v>
+        <v>1.286994568972858</v>
       </c>
       <c r="E18">
-        <v>0.259461263301219</v>
+        <v>1.004604813700468</v>
       </c>
       <c r="F18">
-        <v>5.244928389727988</v>
+        <v>6.298851804928034</v>
       </c>
       <c r="G18">
-        <v>0.002615226791293289</v>
+        <v>0.0007083188354608126</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.533505763903165</v>
+        <v>0.6064498722484899</v>
       </c>
       <c r="J18">
-        <v>0.2770129668527375</v>
+        <v>1.043841698889537</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.339065366115108</v>
+        <v>4.96319002886446</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.637398949445185</v>
+        <v>4.854373858250085</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.346113287459076</v>
+        <v>1.272074353232739</v>
       </c>
       <c r="E19">
-        <v>0.2572324803017665</v>
+        <v>0.9936254939492244</v>
       </c>
       <c r="F19">
-        <v>5.238846068137491</v>
+        <v>6.237860517587194</v>
       </c>
       <c r="G19">
-        <v>0.002616059665534388</v>
+        <v>0.0007100870444986646</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.535270126963816</v>
+        <v>0.6058140718331515</v>
       </c>
       <c r="J19">
-        <v>0.2746407790643843</v>
+        <v>1.033086285441385</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.3293426137908</v>
+        <v>4.912228028534287</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.683775891598316</v>
+        <v>5.065991213996995</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3581573767237387</v>
+        <v>1.340030443596333</v>
       </c>
       <c r="E20">
-        <v>0.2672682062792688</v>
+        <v>1.043534573666761</v>
       </c>
       <c r="F20">
-        <v>5.266516364288549</v>
+        <v>6.516458625236453</v>
       </c>
       <c r="G20">
-        <v>0.002612332878443127</v>
+        <v>0.0007021000068829775</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.52741143539135</v>
+        <v>0.6092454630664506</v>
       </c>
       <c r="J20">
-        <v>0.285317503210706</v>
+        <v>1.081911434819546</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.373186623750712</v>
+        <v>5.143632403454035</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.840893221381862</v>
+        <v>5.803636055036065</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3989417319250776</v>
+        <v>1.585290609018813</v>
       </c>
       <c r="E21">
-        <v>0.3010973722539916</v>
+        <v>1.221686566787099</v>
       </c>
       <c r="F21">
-        <v>5.364777113392506</v>
+        <v>7.537111253115057</v>
       </c>
       <c r="G21">
-        <v>0.002600181458431772</v>
+        <v>0.0006745698606974072</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.50243571746843</v>
+        <v>0.6321965116802701</v>
       </c>
       <c r="J21">
-        <v>0.3212227657460005</v>
+        <v>1.254851173808646</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.522103275266488</v>
+        <v>5.963879161264742</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.944555407318717</v>
+        <v>6.311441755955912</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4258475385305189</v>
+        <v>1.762331246195913</v>
       </c>
       <c r="E22">
-        <v>0.3232968180071225</v>
+        <v>1.348512816390439</v>
       </c>
       <c r="F22">
-        <v>5.433010484596224</v>
+        <v>8.285860584731921</v>
       </c>
       <c r="G22">
-        <v>0.002592513664792222</v>
+        <v>0.0006557992496909997</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.487187642444447</v>
+        <v>0.6578804742704705</v>
       </c>
       <c r="J22">
-        <v>0.3447192591246449</v>
+        <v>1.376742518386408</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.620654080909901</v>
+        <v>6.541724359083844</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.889138882953432</v>
+        <v>6.037611935008385</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4114635394075776</v>
+        <v>1.665985638404663</v>
       </c>
       <c r="E23">
-        <v>0.3114398019882287</v>
+        <v>1.279668964890377</v>
       </c>
       <c r="F23">
-        <v>5.396221199493368</v>
+        <v>7.877314326642107</v>
       </c>
       <c r="G23">
-        <v>0.002596581178678098</v>
+        <v>0.0006659089524078929</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.495226790550085</v>
+        <v>0.6430267873546569</v>
       </c>
       <c r="J23">
-        <v>0.3321755846008614</v>
+        <v>1.310700382537306</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.567941750953594</v>
+        <v>6.22872613805049</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.681224236408809</v>
+        <v>5.054282327924568</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3574948121541013</v>
+        <v>1.336243444045493</v>
       </c>
       <c r="E24">
-        <v>0.2667166959258793</v>
+        <v>1.040759808252261</v>
       </c>
       <c r="F24">
-        <v>5.26497710947109</v>
+        <v>6.500879984953315</v>
       </c>
       <c r="G24">
-        <v>0.002612536138606895</v>
+        <v>0.0007025406886507213</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.527837649663773</v>
+        <v>0.6090186136563105</v>
       </c>
       <c r="J24">
-        <v>0.2847310790829738</v>
+        <v>1.0792013596473</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.37077294437438</v>
+        <v>5.130784576927056</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.461084152938611</v>
+        <v>4.070100028684919</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.30026802965142</v>
+        <v>1.028821772679464</v>
       </c>
       <c r="E25">
-        <v>0.2188125682297937</v>
+        <v>0.8128106732698086</v>
       </c>
       <c r="F25">
-        <v>5.140194690225144</v>
+        <v>5.259611877878967</v>
       </c>
       <c r="G25">
-        <v>0.002630934655616321</v>
+        <v>0.0007402099128630335</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.567562332442947</v>
+        <v>0.6056732400510541</v>
       </c>
       <c r="J25">
-        <v>0.2336475606307857</v>
+        <v>0.8547364868532838</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.163177272260839</v>
+        <v>4.068820173811901</v>
       </c>
       <c r="M25">
         <v>0</v>
